--- a/src/test/java/testdata/userdata.xlsx
+++ b/src/test/java/testdata/userdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>FirstName</t>
   </si>
@@ -46,10 +46,7 @@
     <t>userName</t>
   </si>
   <si>
-    <t>Pawaruser2</t>
-  </si>
-  <si>
-    <t>Pawaruser5</t>
+    <t>Pawaruser6</t>
   </si>
 </sst>
 </file>
@@ -380,8 +377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,7 +410,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -431,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
